--- a/AutomacaoPedidos/PROD BERSANI.xlsx
+++ b/AutomacaoPedidos/PROD BERSANI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NipoCD\PycharmProjects\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC7853-9644-404D-A868-82C0F9F4FD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57FE3C6-D439-41E8-B3CC-8E4C1E6E2469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4D429DC6-6D14-47EF-A3BD-174583378F48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
   <si>
     <t>Abacaxi</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Brócolis Americano</t>
   </si>
   <si>
-    <t>Manjericão</t>
-  </si>
-  <si>
     <t>Manga Palmer</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>PIMENTAO VERMELHO</t>
   </si>
   <si>
-    <t>QUIABO</t>
-  </si>
-  <si>
     <t>REPOLHO VERDE</t>
   </si>
   <si>
@@ -435,6 +429,21 @@
   </si>
   <si>
     <t>ALFACE AMERICANA UNI</t>
+  </si>
+  <si>
+    <t>Manjericão In Natura</t>
+  </si>
+  <si>
+    <t>Uva Thompson</t>
+  </si>
+  <si>
+    <t>Batata Calabresa</t>
+  </si>
+  <si>
+    <t>UVA THOMPSON</t>
+  </si>
+  <si>
+    <t>QUIABO SOLTO</t>
   </si>
 </sst>
 </file>
@@ -442,8 +451,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -513,42 +522,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="14">
     <cellStyle name="Estilo 1" xfId="7" xr:uid="{4C700816-D5F7-41D2-8CEF-AC99A5E2A65C}"/>
     <cellStyle name="Moeda 2" xfId="2" xr:uid="{4108DB03-B7C1-4B48-B39F-AB41AAC16FD6}"/>
     <cellStyle name="Moeda 2 2" xfId="5" xr:uid="{2ADCA454-2296-4694-B500-790A3F38E282}"/>
     <cellStyle name="Moeda 2 2 2" xfId="6" xr:uid="{E31A9757-CDD5-4B2D-A306-398050B4F34C}"/>
+    <cellStyle name="Moeda 2 2 2 2" xfId="12" xr:uid="{88AFC2F2-86F0-4DAC-9857-368727EA8933}"/>
+    <cellStyle name="Moeda 2 2 3" xfId="11" xr:uid="{F22AE71C-D4BC-475E-ABE3-E9550B9B17F6}"/>
+    <cellStyle name="Moeda 3" xfId="9" xr:uid="{2CA19C12-9CFC-4BB0-9728-314A6ADB4BC0}"/>
     <cellStyle name="Moeda 4" xfId="4" xr:uid="{0E2461D8-D56F-4628-B213-651A44A022B3}"/>
+    <cellStyle name="Moeda 4 2" xfId="10" xr:uid="{33B21CC7-710F-4766-A36B-55728053BD51}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{94BDBA11-3BF4-4795-8CC5-898DDBA10567}"/>
     <cellStyle name="Porcentagem 2" xfId="3" xr:uid="{780748BB-6ED8-4FA9-A4D6-C6262BED7A46}"/>
     <cellStyle name="Vírgula 2" xfId="8" xr:uid="{7FB550EB-F725-434C-B242-68F47720FE95}"/>
+    <cellStyle name="Vírgula 3" xfId="13" xr:uid="{0BA71D8C-6416-4055-A551-1C3703D1868A}"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -564,6 +578,27 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -731,46 +766,25 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleMedium16 2" pivot="0" count="7" xr9:uid="{9EEFB4F4-A2DF-447A-BA56-DD8FFEBD076C}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="TableStyleMedium16 3" pivot="0" count="7" xr9:uid="{F6ABBEAA-F7D4-4E12-AB50-6A9A5D7523EC}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -785,13 +799,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57D00DC9-1502-4E67-BE6D-A2A72B936E57}" name="Tabela1" displayName="Tabela1" ref="A1:C66" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="A1:C66" xr:uid="{57D00DC9-1502-4E67-BE6D-A2A72B936E57}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{57D00DC9-1502-4E67-BE6D-A2A72B936E57}" name="Tabela1" displayName="Tabela1" ref="A1:C68" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C68" xr:uid="{57D00DC9-1502-4E67-BE6D-A2A72B936E57}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B62">
     <sortCondition ref="B1:B62"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DE54A0C5-8F4A-4B6E-A49A-0F58776ADA4D}" name="Codigo" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DE54A0C5-8F4A-4B6E-A49A-0F58776ADA4D}" name="Codigo" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{2A0E0C5D-5211-4948-9196-9B698034AED1}" name="Item" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{5A4D2558-E783-4BDA-94DB-AA852E01278C}" name="Produto" dataDxfId="0"/>
   </tableColumns>
@@ -1116,17 +1130,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D6878E-7135-45E7-9B98-57C0037DC814}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1134,10 +1148,10 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>117</v>
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1147,8 +1161,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,8 +1172,8 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>68</v>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,8 +1183,8 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1180,8 +1194,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>70</v>
+      <c r="C5" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1191,8 +1205,8 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>71</v>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,8 +1216,8 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1213,8 +1227,8 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>73</v>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1224,8 +1238,8 @@
       <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>74</v>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1235,8 +1249,8 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>118</v>
+      <c r="C10" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1246,8 +1260,8 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
+      <c r="C11" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,8 +1271,8 @@
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>76</v>
+      <c r="C12" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1268,8 +1282,8 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
+      <c r="C13" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1279,8 +1293,8 @@
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>78</v>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1290,8 +1304,8 @@
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>79</v>
+      <c r="C15" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1301,8 +1315,8 @@
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>80</v>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,8 +1326,8 @@
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>81</v>
+      <c r="C17" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,8 +1337,8 @@
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>82</v>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1334,8 +1348,8 @@
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>83</v>
+      <c r="C19" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,8 +1359,8 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>84</v>
+      <c r="C20" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,8 +1370,8 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>119</v>
+      <c r="C21" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,8 +1381,8 @@
       <c r="B22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>120</v>
+      <c r="C22" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1378,8 +1392,8 @@
       <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>85</v>
+      <c r="C23" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1389,8 +1403,8 @@
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>121</v>
+      <c r="C24" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,8 +1414,8 @@
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>86</v>
+      <c r="C25" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,8 +1425,8 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>122</v>
+      <c r="C26" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1422,8 +1436,8 @@
       <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>123</v>
+      <c r="C27" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1433,8 +1447,8 @@
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>87</v>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,8 +1458,8 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>124</v>
+      <c r="C29" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1455,8 +1469,8 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>125</v>
+      <c r="C30" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,8 +1480,8 @@
       <c r="B31" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>126</v>
+      <c r="C31" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1477,8 +1491,8 @@
       <c r="B32" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>127</v>
+      <c r="C32" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1486,10 +1500,10 @@
         <v>250077</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,8 +1513,8 @@
       <c r="B34" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>128</v>
+      <c r="C34" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,8 +1524,8 @@
       <c r="B35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>89</v>
+      <c r="C35" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1519,10 +1533,10 @@
         <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>90</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,8 +1546,8 @@
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>91</v>
+      <c r="C37" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,8 +1557,8 @@
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>92</v>
+      <c r="C38" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,8 +1568,8 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>129</v>
+      <c r="C39" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,8 +1579,8 @@
       <c r="B40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>93</v>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,8 +1590,8 @@
       <c r="B41" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>94</v>
+      <c r="C41" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,8 +1601,8 @@
       <c r="B42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>95</v>
+      <c r="C42" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,10 +1610,10 @@
         <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>96</v>
+        <v>54</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,8 +1623,8 @@
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>97</v>
+      <c r="C44" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,10 +1632,10 @@
         <v>90281</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,8 +1645,8 @@
       <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>98</v>
+      <c r="C46" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,8 +1656,8 @@
       <c r="B47" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>99</v>
+      <c r="C47" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,8 +1667,8 @@
       <c r="B48" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>100</v>
+      <c r="C48" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1662,10 +1676,10 @@
         <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>101</v>
+        <v>64</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,8 +1689,8 @@
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
+      <c r="C50" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,8 +1700,8 @@
       <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>103</v>
+      <c r="C51" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1695,10 +1709,10 @@
         <v>4805</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,8 +1722,8 @@
       <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
+      <c r="C53" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,10 +1731,10 @@
         <v>174</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1730,8 +1744,8 @@
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>107</v>
+      <c r="C55" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,8 +1755,8 @@
       <c r="B56" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>108</v>
+      <c r="C56" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,8 +1766,8 @@
       <c r="B57" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>109</v>
+      <c r="C57" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,8 +1777,8 @@
       <c r="B58" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>131</v>
+      <c r="C58" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,10 +1786,10 @@
         <v>204</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>110</v>
+        <v>59</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1785,8 +1799,8 @@
       <c r="B60" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>111</v>
+      <c r="C60" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,8 +1810,8 @@
       <c r="B61" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>112</v>
+      <c r="C61" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1807,8 +1821,8 @@
       <c r="B62" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>113</v>
+      <c r="C62" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1816,10 +1830,10 @@
         <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>132</v>
+        <v>61</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,10 +1841,10 @@
         <v>11518</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1838,10 +1852,10 @@
         <v>35026</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>115</v>
+        <v>63</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1849,10 +1863,32 @@
         <v>198</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>116</v>
+        <v>65</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>251</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>41</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
